--- a/Xtras/CloverCalcs.xlsx
+++ b/Xtras/CloverCalcs.xlsx
@@ -135,7 +135,7 @@
     <t>SUM (HEX | DEC)</t>
   </si>
   <si>
-    <t>0xFEF</t>
+    <t>0x7EF</t>
   </si>
   <si>
     <t>0x7FF</t>
@@ -255,7 +255,7 @@
     <numFmt numFmtId="59" formatCode="&quot;0x&quot;###"/>
     <numFmt numFmtId="60" formatCode="########"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -292,12 +292,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1217,7 +1211,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1338,16 +1332,13 @@
     <xf numFmtId="49" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1395,10 +1386,10 @@
     <xf numFmtId="0" fontId="5" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="6" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="7" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1434,7 +1425,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1455,7 +1446,7 @@
     <xf numFmtId="0" fontId="1" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="14" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1473,39 +1464,39 @@
     <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="13" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="15" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="15" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1518,7 +1509,7 @@
     <xf numFmtId="0" fontId="1" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="15" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1909,7 +1900,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>: In macOS BigSur/Monterey, Bit 5 needs to be unset in order to get notified about System Updates!</a:t>
+            <a:t>: In macOS BigSur/Monterey, Bit 4 and 11 nees to be unset in order to get notified about System Updates!</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4865,7 +4856,7 @@
     </row>
     <row r="7" ht="17" customHeight="1">
       <c r="A7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="35">
         <v>1</v>
@@ -4911,7 +4902,7 @@
     </row>
     <row r="8" ht="17.65" customHeight="1">
       <c r="A8" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="35">
         <v>2</v>
@@ -4957,7 +4948,7 @@
     </row>
     <row r="9" ht="17.65" customHeight="1">
       <c r="A9" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="35">
         <v>4</v>
@@ -5003,7 +4994,7 @@
     </row>
     <row r="10" ht="17.65" customHeight="1">
       <c r="A10" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="35">
         <v>8</v>
@@ -5044,13 +5035,13 @@
       </c>
     </row>
     <row r="11" ht="17.65" customHeight="1">
-      <c r="A11" s="40">
-        <v>5</v>
-      </c>
-      <c r="B11" s="41">
+      <c r="A11" s="34">
+        <v>4</v>
+      </c>
+      <c r="B11" s="40">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="42">
+      <c r="C11" t="s" s="41">
         <v>22</v>
       </c>
       <c r="D11" s="37"/>
@@ -5058,21 +5049,21 @@
         <f>HEX2DEC(D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="37">
         <v>10</v>
       </c>
       <c r="G11" s="38">
         <f>HEX2DEC(F11)</f>
         <v>16</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="37">
         <v>10</v>
       </c>
       <c r="I11" s="38">
         <f>HEX2DEC(H11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="38">
         <f>HEX2DEC(J11)</f>
         <v>0</v>
@@ -5085,7 +5076,7 @@
     </row>
     <row r="12" ht="17.65" customHeight="1">
       <c r="A12" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="35">
         <v>20</v>
@@ -5131,7 +5122,7 @@
     </row>
     <row r="13" ht="17.65" customHeight="1">
       <c r="A13" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="35">
         <v>40</v>
@@ -5177,7 +5168,7 @@
     </row>
     <row r="14" ht="17.65" customHeight="1">
       <c r="A14" s="34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="35">
         <v>80</v>
@@ -5211,15 +5202,15 @@
         <f>HEX2DEC(J14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45">
+      <c r="L14" s="43"/>
+      <c r="M14" s="44">
         <f>HEX2DEC(L14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="17.65" customHeight="1">
       <c r="A15" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="35">
         <v>100</v>
@@ -5248,17 +5239,17 @@
         <f>HEX2DEC(H15)</f>
         <v>256</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45">
+      <c r="J15" s="43"/>
+      <c r="K15" s="44">
         <f>HEX2DEC(J15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" ht="17.65" customHeight="1">
       <c r="A16" s="34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="35">
         <v>200</v>
@@ -5280,21 +5271,21 @@
         <f>HEX2DEC(F16)</f>
         <v>512</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="43">
         <v>200</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="44">
         <f>HEX2DEC(H16)</f>
         <v>512</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" ht="17.65" customHeight="1">
       <c r="A17" s="34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="35">
         <v>400</v>
@@ -5309,106 +5300,104 @@
         <f>HEX2DEC(D17)</f>
         <v>1024</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <v>400</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f>HEX2DEC(F17)</f>
         <v>1024</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" ht="17.65" customHeight="1">
-      <c r="A18" s="58">
-        <v>12</v>
-      </c>
-      <c r="B18" s="59">
+      <c r="A18" s="57">
+        <v>11</v>
+      </c>
+      <c r="B18" s="58">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="60">
+      <c r="C18" t="s" s="59">
         <v>29</v>
       </c>
-      <c r="D18" s="44">
-        <v>800</v>
-      </c>
-      <c r="E18" s="45">
+      <c r="D18" s="43"/>
+      <c r="E18" s="44">
         <f>HEX2DEC(D18)</f>
-        <v>2048</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" t="s" s="70">
+      <c r="A20" t="s" s="69">
         <v>30</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" t="s" s="72">
+      <c r="B20" s="70"/>
+      <c r="C20" t="s" s="71">
         <v>31</v>
       </c>
-      <c r="D20" t="s" s="73">
+      <c r="D20" t="s" s="72">
         <f>"0x"&amp;DEC2HEX(E20,3)</f>
         <v>32</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="73">
         <f>SUM(E7:E18)</f>
-        <v>4079</v>
-      </c>
-      <c r="F20" t="s" s="73">
+        <v>2031</v>
+      </c>
+      <c r="F20" t="s" s="72">
         <f>"0x"&amp;DEC2HEX(G20,3)</f>
         <v>33</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="73">
         <f>SUM(G7:G18)</f>
         <v>2047</v>
       </c>
-      <c r="H20" t="s" s="73">
+      <c r="H20" t="s" s="72">
         <f>"0x"&amp;DEC2HEX(I20,3)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="73">
         <f>SUM(I7:I18)</f>
         <v>1023</v>
       </c>
-      <c r="J20" t="s" s="73">
+      <c r="J20" t="s" s="72">
         <f>"0x"&amp;DEC2HEX(K20,3)</f>
         <v>35</v>
       </c>
-      <c r="K20" s="74">
+      <c r="K20" s="73">
         <f>SUM(K7:K15)</f>
         <v>103</v>
       </c>
-      <c r="L20" t="s" s="73">
+      <c r="L20" t="s" s="72">
         <f>"0x"&amp;DEC2HEX(M20,3)</f>
         <v>35</v>
       </c>
-      <c r="M20" s="75">
+      <c r="M20" s="74">
         <f>SUM(M7:M14)</f>
         <v>103</v>
       </c>
@@ -5448,12 +5437,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="76" customWidth="1"/>
-    <col min="2" max="2" width="10.3906" style="76" customWidth="1"/>
-    <col min="3" max="3" width="7.28125" style="76" customWidth="1"/>
-    <col min="4" max="4" width="30.8125" style="76" customWidth="1"/>
-    <col min="5" max="5" width="11.4766" style="76" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="76" customWidth="1"/>
+    <col min="1" max="1" width="7.85156" style="75" customWidth="1"/>
+    <col min="2" max="2" width="10.3906" style="75" customWidth="1"/>
+    <col min="3" max="3" width="7.28125" style="75" customWidth="1"/>
+    <col min="4" max="4" width="30.8125" style="75" customWidth="1"/>
+    <col min="5" max="5" width="11.4766" style="75" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -5466,26 +5455,26 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" ht="8.5" customHeight="1">
-      <c r="A3" t="s" s="80">
+      <c r="A3" t="s" s="79">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="82">
+      <c r="B3" t="s" s="81">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="80">
+      <c r="C3" t="s" s="79">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="80">
+      <c r="D3" t="s" s="79">
         <v>37</v>
       </c>
-      <c r="E3" t="s" s="80">
+      <c r="E3" t="s" s="79">
         <v>17</v>
       </c>
     </row>
@@ -5497,171 +5486,171 @@
       <c r="E4" s="30"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="86">
+      <c r="A6" s="85">
         <v>0</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="86">
         <v>1</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" t="s" s="88">
+      <c r="C6" s="86"/>
+      <c r="D6" t="s" s="87">
         <v>38</v>
       </c>
-      <c r="E6" s="89">
+      <c r="E6" s="88">
         <f>HEX2DEC(C6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="86">
+      <c r="A7" s="85">
         <v>1</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7" s="86">
         <v>2</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" t="s" s="88">
+      <c r="C7" s="86"/>
+      <c r="D7" t="s" s="87">
         <v>39</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="88">
         <f>HEX2DEC(C7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="86">
+      <c r="A8" s="85">
         <v>2</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="86">
         <v>4</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" t="s" s="88">
+      <c r="C8" s="86"/>
+      <c r="D8" t="s" s="87">
         <v>40</v>
       </c>
-      <c r="E8" s="89">
+      <c r="E8" s="88">
         <f>HEX2DEC(C8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="86">
+      <c r="A9" s="85">
         <v>3</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="86">
         <v>8</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="86">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="88">
+      <c r="D9" t="s" s="87">
         <v>41</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="88">
         <f>HEX2DEC(C9)</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="86">
+      <c r="A10" s="85">
         <v>4</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="86">
         <v>10</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" t="s" s="88">
+      <c r="C10" s="86"/>
+      <c r="D10" t="s" s="87">
         <v>42</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="88">
         <f>HEX2DEC(C10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="86">
+      <c r="A11" s="85">
         <v>5</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11" s="86">
         <v>20</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="86">
         <v>20</v>
       </c>
-      <c r="D11" t="s" s="88">
+      <c r="D11" t="s" s="87">
         <v>43</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="88">
         <f>HEX2DEC(C11)</f>
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="86">
+      <c r="A12" s="85">
         <v>6</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="86">
         <v>40</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" t="s" s="88">
+      <c r="C12" s="86"/>
+      <c r="D12" t="s" s="87">
         <v>44</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="88">
         <f>HEX2DEC(C12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="86">
+      <c r="A13" s="85">
         <v>7</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="86">
         <v>80</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" t="s" s="88">
+      <c r="C13" s="86"/>
+      <c r="D13" t="s" s="87">
         <v>45</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="88">
         <f>HEX2DEC(C13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.7" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="91"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" t="s" s="92">
+      <c r="A15" t="s" s="91">
         <v>46</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93">
         <f>SUM(E2:E13)</f>
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="17.65" customHeight="1">
-      <c r="A16" t="s" s="95">
+      <c r="A16" t="s" s="94">
         <v>47</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
-      <c r="E16" t="s" s="96">
+      <c r="E16" t="s" s="95">
         <f>"0x"&amp;DEC2HEX(E15,2)</f>
         <v>48</v>
       </c>
@@ -5694,11 +5683,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="97" customWidth="1"/>
-    <col min="2" max="2" width="25.9219" style="97" customWidth="1"/>
-    <col min="3" max="3" width="69.5703" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.10156" style="97" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="97" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="96" customWidth="1"/>
+    <col min="2" max="2" width="25.9219" style="96" customWidth="1"/>
+    <col min="3" max="3" width="69.5703" style="96" customWidth="1"/>
+    <col min="4" max="4" width="8.10156" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
@@ -5710,144 +5699,144 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="80">
+      <c r="A3" t="s" s="79">
         <v>50</v>
       </c>
-      <c r="B3" t="s" s="80">
+      <c r="B3" t="s" s="79">
         <v>51</v>
       </c>
-      <c r="C3" t="s" s="80">
+      <c r="C3" t="s" s="79">
         <v>52</v>
       </c>
-      <c r="D3" t="s" s="80">
+      <c r="D3" t="s" s="79">
         <v>46</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="102">
+      <c r="A5" s="101">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="103">
+      <c r="B5" t="s" s="102">
         <v>53</v>
       </c>
-      <c r="C5" t="s" s="103">
+      <c r="C5" t="s" s="102">
         <v>54</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="102">
+      <c r="A6" s="101">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="103">
+      <c r="B6" t="s" s="102">
         <v>55</v>
       </c>
-      <c r="C6" t="s" s="103">
+      <c r="C6" t="s" s="102">
         <v>56</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="82"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="102">
+      <c r="A7" s="101">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="103">
+      <c r="B7" t="s" s="102">
         <v>57</v>
       </c>
-      <c r="C7" t="s" s="103">
+      <c r="C7" t="s" s="102">
         <v>58</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="103">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="102">
+      <c r="A8" s="101">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="103">
+      <c r="B8" t="s" s="102">
         <v>59</v>
       </c>
-      <c r="C8" t="s" s="103">
+      <c r="C8" t="s" s="102">
         <v>60</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="104">
+      <c r="A9" s="103">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="103">
+      <c r="B9" t="s" s="102">
         <v>61</v>
       </c>
-      <c r="C9" t="s" s="103">
+      <c r="C9" t="s" s="102">
         <v>56</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="82"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="104">
+      <c r="A10" s="103">
         <v>256</v>
       </c>
-      <c r="B10" t="s" s="103">
+      <c r="B10" t="s" s="102">
         <v>62</v>
       </c>
-      <c r="C10" t="s" s="103">
+      <c r="C10" t="s" s="102">
         <v>63</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="82"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="104">
+      <c r="A11" s="103">
         <v>512</v>
       </c>
-      <c r="B11" t="s" s="103">
+      <c r="B11" t="s" s="102">
         <v>64</v>
       </c>
-      <c r="C11" t="s" s="103">
+      <c r="C11" t="s" s="102">
         <v>65</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="103">
         <v>512</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="104">
+      <c r="A12" s="103">
         <v>1024</v>
       </c>
-      <c r="B12" t="s" s="103">
+      <c r="B12" t="s" s="102">
         <v>66</v>
       </c>
-      <c r="C12" t="s" s="103">
+      <c r="C12" t="s" s="102">
         <v>67</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="83"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="82"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" t="s" s="106">
+      <c r="A14" t="s" s="105">
         <v>68</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="107">
+      <c r="D14" s="106">
         <f>SUM(D5:D12)</f>
         <v>514</v>
       </c>

--- a/Xtras/CloverCalcs.xlsx
+++ b/Xtras/CloverCalcs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>CsrActiveConfig Calculator for macOS 10.11 to 12</t>
   </si>
@@ -135,7 +135,7 @@
     <t>SUM (HEX | DEC)</t>
   </si>
   <si>
-    <t>0x7EF</t>
+    <t>0xA87</t>
   </si>
   <si>
     <t>0x7FF</t>
@@ -147,34 +147,37 @@
     <t>0x067</t>
   </si>
   <si>
+    <t>RECOMMENDED</t>
+  </si>
+  <si>
+    <t>0xFEF</t>
+  </si>
+  <si>
     <t>BooterConfig</t>
   </si>
   <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>kBootArgsFlagRebootOnPanic</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagHiDPI</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagBlack</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagCSRActiveConfig</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagCSRPendingConfig</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagCSRBoot</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagBlackBg</t>
-  </si>
-  <si>
-    <t>kBootArgsFlagLoginUI</t>
+    <t>Reboot On Panic</t>
+  </si>
+  <si>
+    <t>Hi DPI</t>
+  </si>
+  <si>
+    <t>Black Screen</t>
+  </si>
+  <si>
+    <t>CSR Active Config</t>
+  </si>
+  <si>
+    <t>CSR Pending Config</t>
+  </si>
+  <si>
+    <t>CSR Boot</t>
+  </si>
+  <si>
+    <t>Black Background</t>
   </si>
   <si>
     <t>Sum</t>
@@ -1211,7 +1214,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1353,6 +1356,9 @@
     <xf numFmtId="0" fontId="6" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1389,7 +1395,7 @@
     <xf numFmtId="59" fontId="7" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1437,6 +1443,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1479,10 +1494,10 @@
     <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1568,14 +1583,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>77301</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>61872</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>193306</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193331</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1584,8 +1599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="4704546"/>
-          <a:ext cx="10310773" cy="1380926"/>
+          <a:off x="-19050" y="4928725"/>
+          <a:ext cx="10310773" cy="1380927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,14 +1926,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>193486</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>193510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>99972</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>195768</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>195793</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1927,8 +1942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="6085651"/>
-          <a:ext cx="7504073" cy="4218683"/>
+          <a:off x="-19050" y="6309830"/>
+          <a:ext cx="7504073" cy="4218684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2965,14 +2980,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81886</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>34528</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25855</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203084</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2981,8 +2996,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="3441671"/>
-          <a:ext cx="4327129" cy="1208890"/>
+          <a:off x="-19050" y="3242345"/>
+          <a:ext cx="4327129" cy="1398755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,7 +3133,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Copy the Hex values for flags you want to set from »Hex Storage« to the »HEX« column to add them to the BooterConfig bitmask.</a:t>
+            <a:t>Copy the Hex values for flags you want to set from »Hex Storage« to the »HEX« column to add them to the BooterConfig bitmask. Default is 0x28</a:t>
           </a:r>
           <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
             <a:solidFill>
@@ -4690,7 +4705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5002,12 +5017,10 @@
       <c r="C10" t="s" s="39">
         <v>21</v>
       </c>
-      <c r="D10" s="37">
-        <v>8</v>
-      </c>
+      <c r="D10" s="37"/>
       <c r="E10" s="38">
         <f>HEX2DEC(D10)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" s="37">
         <v>8</v>
@@ -5084,12 +5097,10 @@
       <c r="C12" t="s" s="39">
         <v>23</v>
       </c>
-      <c r="D12" s="37">
-        <v>20</v>
-      </c>
+      <c r="D12" s="37"/>
       <c r="E12" s="38">
         <f>HEX2DEC(D12)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F12" s="37">
         <v>20</v>
@@ -5130,12 +5141,10 @@
       <c r="C13" t="s" s="39">
         <v>24</v>
       </c>
-      <c r="D13" s="37">
-        <v>40</v>
-      </c>
+      <c r="D13" s="37"/>
       <c r="E13" s="38">
         <f>HEX2DEC(D13)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F13" s="37">
         <v>40</v>
@@ -5218,12 +5227,10 @@
       <c r="C15" t="s" s="39">
         <v>26</v>
       </c>
-      <c r="D15" s="37">
-        <v>100</v>
-      </c>
+      <c r="D15" s="37"/>
       <c r="E15" s="38">
         <f>HEX2DEC(D15)</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="F15" s="37">
         <v>100</v>
@@ -5254,10 +5261,10 @@
       <c r="B16" s="35">
         <v>200</v>
       </c>
-      <c r="C16" t="s" s="39">
+      <c r="C16" t="s" s="47">
         <v>27</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>200</v>
       </c>
       <c r="E16" s="38">
@@ -5278,10 +5285,10 @@
         <f>HEX2DEC(H16)</f>
         <v>512</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" ht="17.65" customHeight="1">
       <c r="A17" s="34">
@@ -5290,15 +5297,13 @@
       <c r="B17" s="35">
         <v>400</v>
       </c>
-      <c r="C17" t="s" s="39">
+      <c r="C17" t="s" s="47">
         <v>28</v>
       </c>
-      <c r="D17" s="37">
-        <v>400</v>
-      </c>
+      <c r="D17" s="35"/>
       <c r="E17" s="38">
         <f>HEX2DEC(D17)</f>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="F17" s="43">
         <v>400</v>
@@ -5307,103 +5312,124 @@
         <f>HEX2DEC(F17)</f>
         <v>1024</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
     </row>
     <row r="18" ht="17.65" customHeight="1">
-      <c r="A18" s="57">
+      <c r="A18" s="58">
         <v>11</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="59">
         <v>800</v>
       </c>
-      <c r="C18" t="s" s="59">
+      <c r="C18" t="s" s="60">
         <v>29</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="59">
+        <v>800</v>
+      </c>
       <c r="E18" s="44">
         <f>HEX2DEC(D18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61"/>
+        <v>2048</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" ht="16.65" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" ht="17.65" customHeight="1">
-      <c r="A20" t="s" s="69">
+      <c r="A20" t="s" s="70">
         <v>30</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" t="s" s="71">
+      <c r="B20" s="71"/>
+      <c r="C20" t="s" s="72">
         <v>31</v>
       </c>
-      <c r="D20" t="s" s="72">
+      <c r="D20" t="s" s="73">
         <f>"0x"&amp;DEC2HEX(E20,3)</f>
         <v>32</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="74">
         <f>SUM(E7:E18)</f>
-        <v>2031</v>
-      </c>
-      <c r="F20" t="s" s="72">
+        <v>2695</v>
+      </c>
+      <c r="F20" t="s" s="73">
         <f>"0x"&amp;DEC2HEX(G20,3)</f>
         <v>33</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="74">
         <f>SUM(G7:G18)</f>
         <v>2047</v>
       </c>
-      <c r="H20" t="s" s="72">
+      <c r="H20" t="s" s="73">
         <f>"0x"&amp;DEC2HEX(I20,3)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="74">
         <f>SUM(I7:I18)</f>
         <v>1023</v>
       </c>
-      <c r="J20" t="s" s="72">
+      <c r="J20" t="s" s="73">
         <f>"0x"&amp;DEC2HEX(K20,3)</f>
         <v>35</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="74">
         <f>SUM(K7:K15)</f>
         <v>103</v>
       </c>
-      <c r="L20" t="s" s="72">
+      <c r="L20" t="s" s="73">
         <f>"0x"&amp;DEC2HEX(M20,3)</f>
         <v>35</v>
       </c>
-      <c r="M20" s="74">
+      <c r="M20" s="75">
         <f>SUM(M7:M14)</f>
         <v>103</v>
       </c>
     </row>
+    <row r="21" ht="17.65" customHeight="1">
+      <c r="A21" t="s" s="70">
+        <v>36</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="76"/>
+      <c r="D21" t="s" s="73">
+        <v>37</v>
+      </c>
+      <c r="E21" s="77"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="78"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J4:K4"/>
@@ -5419,6 +5445,7 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -5431,23 +5458,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="75" customWidth="1"/>
-    <col min="2" max="2" width="10.3906" style="75" customWidth="1"/>
-    <col min="3" max="3" width="7.28125" style="75" customWidth="1"/>
-    <col min="4" max="4" width="30.8125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="11.4766" style="75" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="75" customWidth="1"/>
+    <col min="1" max="1" width="7.85156" style="79" customWidth="1"/>
+    <col min="2" max="2" width="10.3906" style="79" customWidth="1"/>
+    <col min="3" max="3" width="7.28125" style="79" customWidth="1"/>
+    <col min="4" max="4" width="30.8125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="11.4766" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5455,26 +5482,26 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" ht="8.5" customHeight="1">
-      <c r="A3" t="s" s="79">
+      <c r="A3" t="s" s="83">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="81">
+      <c r="B3" t="s" s="85">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="79">
+      <c r="C3" t="s" s="83">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="79">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s" s="79">
+      <c r="D3" t="s" s="83">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s" s="83">
         <v>17</v>
       </c>
     </row>
@@ -5486,185 +5513,170 @@
       <c r="E4" s="30"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="83"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="85">
+      <c r="A6" s="89">
         <v>0</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="90">
         <v>1</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" t="s" s="87">
-        <v>38</v>
-      </c>
-      <c r="E6" s="88">
+      <c r="C6" s="90"/>
+      <c r="D6" t="s" s="91">
+        <v>40</v>
+      </c>
+      <c r="E6" s="92">
         <f>HEX2DEC(C6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="85">
+      <c r="A7" s="89">
         <v>1</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="90">
         <v>2</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" t="s" s="87">
-        <v>39</v>
-      </c>
-      <c r="E7" s="88">
+      <c r="C7" s="90"/>
+      <c r="D7" t="s" s="91">
+        <v>41</v>
+      </c>
+      <c r="E7" s="92">
         <f>HEX2DEC(C7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="85">
+      <c r="A8" s="89">
         <v>2</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="90">
         <v>4</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" t="s" s="87">
-        <v>40</v>
-      </c>
-      <c r="E8" s="88">
+      <c r="C8" s="90"/>
+      <c r="D8" t="s" s="91">
+        <v>42</v>
+      </c>
+      <c r="E8" s="92">
         <f>HEX2DEC(C8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="85">
+      <c r="A9" s="89">
         <v>3</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="90">
         <v>8</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="90">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="87">
-        <v>41</v>
-      </c>
-      <c r="E9" s="88">
+      <c r="D9" t="s" s="91">
+        <v>43</v>
+      </c>
+      <c r="E9" s="92">
         <f>HEX2DEC(C9)</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="85">
+      <c r="A10" s="89">
         <v>4</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="90">
         <v>10</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" t="s" s="87">
-        <v>42</v>
-      </c>
-      <c r="E10" s="88">
+      <c r="C10" s="90"/>
+      <c r="D10" t="s" s="91">
+        <v>44</v>
+      </c>
+      <c r="E10" s="92">
         <f>HEX2DEC(C10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="85">
+      <c r="A11" s="89">
         <v>5</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="90">
         <v>20</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="90">
         <v>20</v>
       </c>
-      <c r="D11" t="s" s="87">
-        <v>43</v>
-      </c>
-      <c r="E11" s="88">
+      <c r="D11" t="s" s="91">
+        <v>45</v>
+      </c>
+      <c r="E11" s="92">
         <f>HEX2DEC(C11)</f>
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="85">
+      <c r="A12" s="89">
         <v>6</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="90">
         <v>40</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" t="s" s="87">
-        <v>44</v>
-      </c>
-      <c r="E12" s="88">
+      <c r="C12" s="90"/>
+      <c r="D12" t="s" s="91">
+        <v>46</v>
+      </c>
+      <c r="E12" s="92">
         <f>HEX2DEC(C12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="85">
-        <v>7</v>
-      </c>
-      <c r="B13" s="86">
-        <v>80</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" t="s" s="87">
-        <v>45</v>
-      </c>
-      <c r="E13" s="88">
-        <f>HEX2DEC(C13)</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="93"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="94"/>
     </row>
-    <row r="14" ht="14.7" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="90"/>
+    <row r="14" ht="17.65" customHeight="1">
+      <c r="A14" t="s" s="95">
+        <v>47</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97">
+        <f>SUM(E6:E12)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="15" ht="17.65" customHeight="1">
-      <c r="A15" t="s" s="91">
-        <v>46</v>
-      </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93">
-        <f>SUM(E2:E13)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="17.65" customHeight="1">
-      <c r="A16" t="s" s="94">
-        <v>47</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" t="s" s="95">
-        <f>"0x"&amp;DEC2HEX(E15,2)</f>
+      <c r="A15" t="s" s="98">
         <v>48</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" t="s" s="99">
+        <f>"0x"&amp;DEC2HEX(E14,2)</f>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -5683,160 +5695,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.67188" style="96" customWidth="1"/>
-    <col min="2" max="2" width="25.9219" style="96" customWidth="1"/>
-    <col min="3" max="3" width="69.5703" style="96" customWidth="1"/>
-    <col min="4" max="4" width="8.10156" style="96" customWidth="1"/>
-    <col min="5" max="16384" width="10.8516" style="96" customWidth="1"/>
+    <col min="1" max="1" width="9.67188" style="100" customWidth="1"/>
+    <col min="2" max="2" width="25.9219" style="100" customWidth="1"/>
+    <col min="3" max="3" width="69.5703" style="100" customWidth="1"/>
+    <col min="4" max="4" width="8.10156" style="100" customWidth="1"/>
+    <col min="5" max="16384" width="10.8516" style="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" ht="16.65" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" ht="17.65" customHeight="1">
-      <c r="A3" t="s" s="79">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s" s="79">
+      <c r="A3" t="s" s="83">
         <v>51</v>
       </c>
-      <c r="C3" t="s" s="79">
+      <c r="B3" t="s" s="83">
         <v>52</v>
       </c>
-      <c r="D3" t="s" s="79">
-        <v>46</v>
+      <c r="C3" t="s" s="83">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s" s="83">
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="86"/>
     </row>
     <row r="5" ht="16.65" customHeight="1">
-      <c r="A5" s="101">
+      <c r="A5" s="105">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="102">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s" s="102">
+      <c r="B5" t="s" s="106">
         <v>54</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="C5" t="s" s="106">
+        <v>55</v>
+      </c>
+      <c r="D5" s="86"/>
     </row>
     <row r="6" ht="16.65" customHeight="1">
-      <c r="A6" s="101">
+      <c r="A6" s="105">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="102">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s" s="102">
+      <c r="B6" t="s" s="106">
         <v>56</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="C6" t="s" s="106">
+        <v>57</v>
+      </c>
+      <c r="D6" s="86"/>
     </row>
     <row r="7" ht="16.65" customHeight="1">
-      <c r="A7" s="101">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
-      <c r="B7" t="s" s="102">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s" s="102">
+      <c r="B7" t="s" s="106">
         <v>58</v>
       </c>
-      <c r="D7" s="103">
+      <c r="C7" t="s" s="106">
+        <v>59</v>
+      </c>
+      <c r="D7" s="107">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="16.65" customHeight="1">
-      <c r="A8" s="101">
+      <c r="A8" s="105">
         <v>3</v>
       </c>
-      <c r="B8" t="s" s="102">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s" s="102">
+      <c r="B8" t="s" s="106">
         <v>60</v>
       </c>
-      <c r="D8" s="82"/>
+      <c r="C8" t="s" s="106">
+        <v>61</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" ht="16.65" customHeight="1">
-      <c r="A9" s="103">
+      <c r="A9" s="107">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="102">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s" s="102">
-        <v>56</v>
-      </c>
-      <c r="D9" s="82"/>
+      <c r="B9" t="s" s="106">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s" s="106">
+        <v>57</v>
+      </c>
+      <c r="D9" s="86"/>
     </row>
     <row r="10" ht="16.65" customHeight="1">
-      <c r="A10" s="103">
+      <c r="A10" s="107">
         <v>256</v>
       </c>
-      <c r="B10" t="s" s="102">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s" s="102">
+      <c r="B10" t="s" s="106">
         <v>63</v>
       </c>
-      <c r="D10" s="82"/>
+      <c r="C10" t="s" s="106">
+        <v>64</v>
+      </c>
+      <c r="D10" s="86"/>
     </row>
     <row r="11" ht="16.65" customHeight="1">
-      <c r="A11" s="103">
+      <c r="A11" s="107">
         <v>512</v>
       </c>
-      <c r="B11" t="s" s="102">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s" s="102">
+      <c r="B11" t="s" s="106">
         <v>65</v>
       </c>
-      <c r="D11" s="103">
+      <c r="C11" t="s" s="106">
+        <v>66</v>
+      </c>
+      <c r="D11" s="107">
         <v>512</v>
       </c>
     </row>
     <row r="12" ht="16.65" customHeight="1">
-      <c r="A12" s="103">
+      <c r="A12" s="107">
         <v>1024</v>
       </c>
-      <c r="B12" t="s" s="102">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s" s="102">
+      <c r="B12" t="s" s="106">
         <v>67</v>
       </c>
-      <c r="D12" s="82"/>
+      <c r="C12" t="s" s="106">
+        <v>68</v>
+      </c>
+      <c r="D12" s="86"/>
     </row>
     <row r="13" ht="16.65" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="82"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="86"/>
     </row>
     <row r="14" ht="17.65" customHeight="1">
-      <c r="A14" t="s" s="105">
-        <v>68</v>
+      <c r="A14" t="s" s="109">
+        <v>69</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="106">
+      <c r="D14" s="110">
         <f>SUM(D5:D12)</f>
         <v>514</v>
       </c>
